--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_02-01_end.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_02-01_end.xlsx
@@ -592,7 +592,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name="Broadcast"]   The L.G.D. will detain them in accordance with the "Emergency Handling Act."
+    <t xml:space="preserve">[name="Broadcast"]   The L.G.D. will detain them in accordance with the 'Emergency Handling Act.'
 </t>
   </si>
   <si>

--- a/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_02-01_end.xlsx
+++ b/story/Main Story and Others 主线剧情等/Main Story 主线剧情/level_main_02-01_end.xlsx
@@ -556,7 +556,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[name=""]   10:14 PM \ Clear \ Visibility: 19 km
+    <t xml:space="preserve">[name=""]   10:14 P.M. \ Clear \ Visibility: 19 km
 </t>
   </si>
   <si>
